--- a/doc/Bericht/05_Technischer Bericht/06_HSR Videowall Evaluation & Tests/NutzwertmatrixMonitorkonstellationVideoWall.xlsx
+++ b/doc/Bericht/05_Technischer Bericht/06_HSR Videowall Evaluation & Tests/NutzwertmatrixMonitorkonstellationVideoWall.xlsx
@@ -64,9 +64,6 @@
     <t>Durch die Nutzwertanalyse geht die Konstellation "Variante 1: 3 x 3 55" Monitore" als Sieger hervor.</t>
   </si>
   <si>
-    <t>Nutzwertanalyse: Auswahl Monitorkonstellation für Video Wall</t>
-  </si>
-  <si>
     <t>Bemerkung: Die Gewichtungs- / Bewertungsskala geht von wenig (1), bedingt (3) bis zu sehr wichtig (5).</t>
   </si>
   <si>
@@ -74,6 +71,9 @@
   </si>
   <si>
     <t>Einbringung in Raumhöhe (Raumgefühl)</t>
+  </si>
+  <si>
+    <t>Nutzwertanalyse: Auswahl Monitorkonstellation für Videowall</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +534,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -604,7 +604,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -792,7 +792,7 @@
     <row r="12" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
